--- a/biology/Microbiologie/Stentoridae/Stentoridae.xlsx
+++ b/biology/Microbiologie/Stentoridae/Stentoridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Stentoridae sont une famille de Ciliés de la classe des Heterotrichea et de l’ordre des Heterotrichida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Stentor, dérivé du grec στέντωρ / sténtor, Stentor, personnage de la mythologie grecque célèbre pour sa forte voix, en référence au corps de ce cilié qui est en forme de trompette avec la bouche à l'extrémité large. 
 </t>
@@ -542,10 +556,12 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (4 février 2023)[1] :
-Heterostentor Song &amp; Wilbert, 2002[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (4 février 2023) :
+Heterostentor Song &amp; Wilbert, 2002
 Stentor Oken, 1815
 Stentorina Bory, 1824 : un des synonymes de Stentor [note 1]</t>
         </is>
@@ -575,9 +591,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Stentoridae Carus, 1863[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Stentoridae Carus, 1863.
 </t>
         </is>
       </c>
